--- a/docs/cda-logical-model/ValueSet-CDAActClass.xlsx
+++ b/docs/cda-logical-model/ValueSet-CDAActClass.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from ActClass" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-sd-202406-matchbox-patch</t>
+    <t>2.0.1-sd-202510-matchbox-patch</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T17:47:42+02:00</t>
+    <t>2025-10-29T22:15:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,6 +72,12 @@
     <t>HL7 International - Structured Documents (http://www.hl7.org/Special/committees/structure, structdog@lists.HL7.org)</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -280,9 +286,6 @@
   </si>
   <si>
     <t>XACT</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -422,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -524,20 +527,28 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -559,404 +570,404 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
